--- a/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
+++ b/InputData/trans/BHNVFEAL/BAU Historical New Veh Fuel Economy After Lifetime.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\BHNVFEAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anaxolt/Google Drive/2021/D.Development/REVISIONs_Mexico_323/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{69C73900-ABB7-424E-8F7F-A8D3BB2AAD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="15980" yWindow="500" windowWidth="17620" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -42,7 +43,7 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -58,14 +59,14 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
   <futureMetadata name="XLDAPR" count="1">
     <bk>
       <extLst>
-        <ext xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray" uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
           <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
         </ext>
       </extLst>
@@ -382,7 +383,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -659,7 +660,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -808,6 +809,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1283,7 +1290,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1337,164 +1344,165 @@
     <xf numFmtId="11" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="156">
-    <cellStyle name="20% - Accent1 2" xfId="8"/>
-    <cellStyle name="20% - Accent2 2" xfId="9"/>
-    <cellStyle name="20% - Accent3 2" xfId="10"/>
-    <cellStyle name="20% - Accent4 2" xfId="11"/>
-    <cellStyle name="20% - Accent5 2" xfId="12"/>
-    <cellStyle name="20% - Accent6 2" xfId="13"/>
-    <cellStyle name="40% - Accent1 2" xfId="14"/>
-    <cellStyle name="40% - Accent2 2" xfId="15"/>
-    <cellStyle name="40% - Accent3 2" xfId="16"/>
-    <cellStyle name="40% - Accent4 2" xfId="17"/>
-    <cellStyle name="40% - Accent5 2" xfId="18"/>
-    <cellStyle name="40% - Accent6 2" xfId="19"/>
-    <cellStyle name="60% - Accent1 2" xfId="20"/>
-    <cellStyle name="60% - Accent2 2" xfId="21"/>
-    <cellStyle name="60% - Accent3 2" xfId="22"/>
-    <cellStyle name="60% - Accent4 2" xfId="23"/>
-    <cellStyle name="60% - Accent5 2" xfId="24"/>
-    <cellStyle name="60% - Accent6 2" xfId="25"/>
-    <cellStyle name="Accent1 2" xfId="26"/>
-    <cellStyle name="Accent2 2" xfId="27"/>
-    <cellStyle name="Accent3 2" xfId="28"/>
-    <cellStyle name="Accent4 2" xfId="29"/>
-    <cellStyle name="Accent5 2" xfId="30"/>
-    <cellStyle name="Accent6 2" xfId="31"/>
-    <cellStyle name="Bad 2" xfId="32"/>
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Body: normal cell 2" xfId="33"/>
-    <cellStyle name="Calculation 2" xfId="34"/>
-    <cellStyle name="Check Cell 2" xfId="35"/>
-    <cellStyle name="Column heading" xfId="36"/>
+    <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Calculation 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Check Cell 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Column heading" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="Comma" xfId="154" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="37"/>
-    <cellStyle name="Comma 2 2" xfId="38"/>
-    <cellStyle name="Comma 3" xfId="39"/>
-    <cellStyle name="Comma 4" xfId="40"/>
-    <cellStyle name="Comma 5" xfId="41"/>
-    <cellStyle name="Comma 6" xfId="42"/>
-    <cellStyle name="Comma 7" xfId="43"/>
-    <cellStyle name="Comma 8" xfId="44"/>
-    <cellStyle name="Corner heading" xfId="45"/>
-    <cellStyle name="Currency 2" xfId="46"/>
-    <cellStyle name="Currency 3" xfId="47"/>
-    <cellStyle name="Currency 3 2" xfId="48"/>
-    <cellStyle name="Data" xfId="49"/>
-    <cellStyle name="Data 2" xfId="50"/>
-    <cellStyle name="Data no deci" xfId="51"/>
-    <cellStyle name="Data Superscript" xfId="52"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="53"/>
-    <cellStyle name="Explanatory Text 2" xfId="54"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55"/>
-    <cellStyle name="Footnotes: top row" xfId="2"/>
-    <cellStyle name="Footnotes: top row 2" xfId="56"/>
-    <cellStyle name="Good 2" xfId="57"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
-    <cellStyle name="Header: bottom row 2" xfId="58"/>
-    <cellStyle name="Heading 1 2" xfId="59"/>
-    <cellStyle name="Heading 2 2" xfId="60"/>
-    <cellStyle name="Heading 3 2" xfId="61"/>
-    <cellStyle name="Heading 4 2" xfId="62"/>
-    <cellStyle name="Hed Side" xfId="63"/>
-    <cellStyle name="Hed Side 2" xfId="64"/>
-    <cellStyle name="Hed Side bold" xfId="65"/>
-    <cellStyle name="Hed Side Indent" xfId="66"/>
-    <cellStyle name="Hed Side Regular" xfId="67"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="68"/>
-    <cellStyle name="Hed Top" xfId="69"/>
-    <cellStyle name="Hed Top - SECTION" xfId="70"/>
-    <cellStyle name="Hed Top_3-new4" xfId="71"/>
+    <cellStyle name="Comma 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Comma 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Comma 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Comma 4" xfId="40" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Comma 5" xfId="41" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Comma 6" xfId="42" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Comma 7" xfId="43" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Comma 8" xfId="44" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Corner heading" xfId="45" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Currency 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Currency 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Currency 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Data" xfId="49" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Data 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Data no deci" xfId="51" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Data Superscript" xfId="52" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="53" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Footnotes: top row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Good 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Heading 1 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Heading 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Heading 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Heading 4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Hed Side" xfId="63" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Hed Side 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Hed Side bold" xfId="65" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Hed Side Indent" xfId="66" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Hed Side Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="68" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Hed Top" xfId="69" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Hed Top - SECTION" xfId="70" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Hed Top_3-new4" xfId="71" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="72"/>
-    <cellStyle name="Input 2" xfId="73"/>
-    <cellStyle name="Linked Cell 2" xfId="74"/>
-    <cellStyle name="Neutral 2" xfId="75"/>
+    <cellStyle name="Hyperlink 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Input 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Neutral 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="76"/>
-    <cellStyle name="Normal 11" xfId="77"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="78"/>
-    <cellStyle name="Normal 2 3" xfId="79"/>
-    <cellStyle name="Normal 3" xfId="80"/>
-    <cellStyle name="Normal 3 2" xfId="81"/>
-    <cellStyle name="Normal 3 2 2" xfId="82"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="83"/>
-    <cellStyle name="Normal 3 2 3" xfId="84"/>
-    <cellStyle name="Normal 3 3" xfId="85"/>
-    <cellStyle name="Normal 3 3 2" xfId="86"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="87"/>
-    <cellStyle name="Normal 3 3 3" xfId="88"/>
-    <cellStyle name="Normal 3 4" xfId="89"/>
-    <cellStyle name="Normal 3 4 2" xfId="90"/>
-    <cellStyle name="Normal 3 5" xfId="91"/>
-    <cellStyle name="Normal 3 6" xfId="92"/>
-    <cellStyle name="Normal 3 7" xfId="93"/>
-    <cellStyle name="Normal 4" xfId="94"/>
-    <cellStyle name="Normal 4 2" xfId="95"/>
-    <cellStyle name="Normal 4 2 2" xfId="96"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="97"/>
-    <cellStyle name="Normal 4 2 3" xfId="98"/>
-    <cellStyle name="Normal 4 3" xfId="99"/>
-    <cellStyle name="Normal 4 3 2" xfId="100"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="101"/>
-    <cellStyle name="Normal 4 3 3" xfId="102"/>
-    <cellStyle name="Normal 4 4" xfId="103"/>
-    <cellStyle name="Normal 4 4 2" xfId="104"/>
-    <cellStyle name="Normal 4 5" xfId="105"/>
-    <cellStyle name="Normal 4 6" xfId="106"/>
-    <cellStyle name="Normal 4 7" xfId="107"/>
-    <cellStyle name="Normal 5" xfId="108"/>
-    <cellStyle name="Normal 5 2" xfId="109"/>
-    <cellStyle name="Normal 5 3" xfId="110"/>
-    <cellStyle name="Normal 6" xfId="111"/>
-    <cellStyle name="Normal 6 2" xfId="112"/>
-    <cellStyle name="Normal 7" xfId="113"/>
-    <cellStyle name="Normal 7 2" xfId="114"/>
-    <cellStyle name="Normal 8" xfId="115"/>
-    <cellStyle name="Normal 9" xfId="116"/>
-    <cellStyle name="Note 2" xfId="117"/>
-    <cellStyle name="Note 2 2" xfId="118"/>
-    <cellStyle name="Output 2" xfId="119"/>
-    <cellStyle name="Parent row" xfId="3"/>
-    <cellStyle name="Parent row 2" xfId="120"/>
-    <cellStyle name="Percent" xfId="155" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="121"/>
-    <cellStyle name="Percent 2 2" xfId="122"/>
-    <cellStyle name="Percent 3" xfId="123"/>
-    <cellStyle name="Percent 3 2" xfId="124"/>
-    <cellStyle name="Percent 4" xfId="125"/>
-    <cellStyle name="Reference" xfId="126"/>
-    <cellStyle name="Row heading" xfId="127"/>
-    <cellStyle name="Source Hed" xfId="128"/>
-    <cellStyle name="Source Letter" xfId="129"/>
-    <cellStyle name="Source Superscript" xfId="130"/>
-    <cellStyle name="Source Superscript 2" xfId="131"/>
-    <cellStyle name="Source Text" xfId="132"/>
-    <cellStyle name="Source Text 2" xfId="133"/>
-    <cellStyle name="State" xfId="134"/>
-    <cellStyle name="Superscript" xfId="135"/>
-    <cellStyle name="Table Data" xfId="136"/>
-    <cellStyle name="Table Head Top" xfId="137"/>
-    <cellStyle name="Table Hed Side" xfId="138"/>
-    <cellStyle name="Table title" xfId="7"/>
-    <cellStyle name="Table title 2" xfId="139"/>
-    <cellStyle name="Title 2" xfId="140"/>
-    <cellStyle name="Title Text" xfId="141"/>
-    <cellStyle name="Title Text 1" xfId="142"/>
-    <cellStyle name="Title Text 2" xfId="143"/>
-    <cellStyle name="Title-1" xfId="144"/>
-    <cellStyle name="Title-2" xfId="145"/>
-    <cellStyle name="Title-3" xfId="146"/>
-    <cellStyle name="Total 2" xfId="147"/>
-    <cellStyle name="Warning Text 2" xfId="148"/>
-    <cellStyle name="Wrap" xfId="149"/>
-    <cellStyle name="Wrap Bold" xfId="150"/>
-    <cellStyle name="Wrap Title" xfId="151"/>
-    <cellStyle name="Wrap_NTS99-~11" xfId="152"/>
+    <cellStyle name="Normal 10" xfId="76" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Normal 11" xfId="77" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Normal 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 3 4" xfId="89" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="90" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 3 5" xfId="91" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 3 6" xfId="92" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 3 7" xfId="93" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 4 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 4 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 4 3 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 4 3 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 4 4" xfId="103" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 4 4 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 4 5" xfId="105" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 4 6" xfId="106" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 4 7" xfId="107" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 5 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 5 3" xfId="110" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 6 2" xfId="112" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 7" xfId="113" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normal 7 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Normal 8" xfId="115" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Normal 9" xfId="116" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Note 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Note 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Output 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Parent row 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Per cent" xfId="155" builtinId="5"/>
+    <cellStyle name="Percent 2" xfId="121" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Percent 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Percent 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Percent 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Percent 4" xfId="125" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Reference" xfId="126" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Row heading" xfId="127" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Source Hed" xfId="128" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Source Letter" xfId="129" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Source Superscript" xfId="130" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Source Superscript 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Source Text" xfId="132" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Source Text 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="State" xfId="134" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Superscript" xfId="135" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Table Data" xfId="136" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Table Head Top" xfId="137" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Table Hed Side" xfId="138" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Table title 2" xfId="139" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Title 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Title Text" xfId="141" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Title Text 1" xfId="142" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Title Text 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Title-1" xfId="144" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Title-2" xfId="145" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Title-3" xfId="146" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Total 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Warning Text 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Wrap" xfId="149" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Wrap Bold" xfId="150" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Wrap Title" xfId="151" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="152" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1512,7 +1520,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1524,7 +1532,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1773,43 +1780,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>3.142498616321923E-4</c:v>
+                  <c:v>2.6344299777549056E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>3.2092630056054029E-4</c:v>
+                  <c:v>2.7402765700050791E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>3.2760273948888828E-4</c:v>
+                  <c:v>2.8461231622552526E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>3.3427917841723627E-4</c:v>
+                  <c:v>2.9519697545054262E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>3.4095561734558426E-4</c:v>
+                  <c:v>3.0578163467555997E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>3.4763205627393225E-4</c:v>
+                  <c:v>3.1636629390057732E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>3.5430849520228023E-4</c:v>
+                  <c:v>3.2695095312559468E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>3.6098493413062822E-4</c:v>
+                  <c:v>3.3753561235061203E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>3.6766137305897621E-4</c:v>
+                  <c:v>3.4812027157562938E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>3.743378119873242E-4</c:v>
+                  <c:v>3.5870493080064674E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>3.8101425091567219E-4</c:v>
+                  <c:v>3.6928959002566409E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>3.8769068984402017E-4</c:v>
+                  <c:v>3.7987424925068144E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>3.9436712877236816E-4</c:v>
+                  <c:v>3.904589084756988E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
                   <c:v>4.010435677007162E-4</c:v>
@@ -1976,7 +1983,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1988,7 +1995,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2500,7 +2506,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2976,7 +2982,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2988,7 +2994,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3440,7 +3445,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3452,7 +3457,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3701,88 +3705,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>1.0544082239246518E-3</c:v>
+                  <c:v>1.1374910172001159E-3</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>1.0544082239246518E-3</c:v>
+                  <c:v>1.1374910172001159E-3</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>1.0544082239246518E-3</c:v>
+                  <c:v>1.1374910172001159E-3</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>1.0544082239246518E-3</c:v>
+                  <c:v>1.1374910172001159E-3</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>1.0544082239246518E-3</c:v>
+                  <c:v>1.1374910172001159E-3</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>1.0544082239246518E-3</c:v>
+                  <c:v>1.1374910172001159E-3</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>1.0544082239246518E-3</c:v>
+                  <c:v>1.1374910172001159E-3</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>1.0544082239246518E-3</c:v>
+                  <c:v>1.1374910172001159E-3</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>1.0544082239246518E-3</c:v>
+                  <c:v>1.1374910172001159E-3</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>1.0544082239246518E-3</c:v>
+                  <c:v>1.1374910172001159E-3</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>1.0544082239246518E-3</c:v>
+                  <c:v>1.1374910172001159E-3</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>1.0507727694715886E-3</c:v>
+                  <c:v>1.1294827841536073E-3</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>1.0471373150185254E-3</c:v>
+                  <c:v>1.1214745511070987E-3</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>1.0435018605654625E-3</c:v>
+                  <c:v>1.11346631806059E-3</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>1.0398664061123993E-3</c:v>
+                  <c:v>1.1054580850140814E-3</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>1.0362309516593362E-3</c:v>
+                  <c:v>1.0974498519675728E-3</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>1.032595497206273E-3</c:v>
+                  <c:v>1.0894416189210642E-3</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>1.0289600427532098E-3</c:v>
+                  <c:v>1.0814333858745555E-3</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>1.0253245883001466E-3</c:v>
+                  <c:v>1.0734251528280471E-3</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>1.0216891338470835E-3</c:v>
+                  <c:v>1.0654169197815385E-3</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>1.0180536793940205E-3</c:v>
+                  <c:v>1.0574086867350299E-3</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>1.0144182249409574E-3</c:v>
+                  <c:v>1.0494004536885212E-3</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>1.0107827704878942E-3</c:v>
+                  <c:v>1.0413922206420126E-3</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>1.0071473160348312E-3</c:v>
+                  <c:v>1.033383987595504E-3</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>1.0035118615817681E-3</c:v>
+                  <c:v>1.0253757545489954E-3</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>9.998764071287049E-4</c:v>
+                  <c:v>1.017367521502487E-3</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>9.9624095267564173E-4</c:v>
+                  <c:v>1.0093592884559785E-3</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>9.9260549822257856E-4</c:v>
+                  <c:v>1.0013510554094699E-3</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
                   <c:v>9.8533458931645266E-4</c:v>
@@ -3949,7 +3953,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3961,7 +3965,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4210,88 +4213,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>7.8040477200267344E-4</c:v>
+                  <c:v>8.4189728208775873E-4</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>7.8040477200267344E-4</c:v>
+                  <c:v>8.4189728208775873E-4</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>7.8040477200267344E-4</c:v>
+                  <c:v>8.4189728208775873E-4</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="0.00E+00">
-                  <c:v>7.8040477200267344E-4</c:v>
+                  <c:v>8.4189728208775873E-4</c:v>
                 </c:pt>
                 <c:pt idx="13" formatCode="0.00E+00">
-                  <c:v>7.8040477200267344E-4</c:v>
+                  <c:v>8.4189728208775873E-4</c:v>
                 </c:pt>
                 <c:pt idx="14" formatCode="0.00E+00">
-                  <c:v>7.8040477200267344E-4</c:v>
+                  <c:v>8.4189728208775873E-4</c:v>
                 </c:pt>
                 <c:pt idx="15" formatCode="0.00E+00">
-                  <c:v>7.8040477200267344E-4</c:v>
+                  <c:v>8.4189728208775873E-4</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="0.00E+00">
-                  <c:v>7.8040477200267344E-4</c:v>
+                  <c:v>8.4189728208775873E-4</c:v>
                 </c:pt>
                 <c:pt idx="17" formatCode="0.00E+00">
-                  <c:v>7.8040477200267344E-4</c:v>
+                  <c:v>8.4189728208775873E-4</c:v>
                 </c:pt>
                 <c:pt idx="18" formatCode="0.00E+00">
-                  <c:v>7.8040477200267344E-4</c:v>
+                  <c:v>8.4189728208775873E-4</c:v>
                 </c:pt>
                 <c:pt idx="19" formatCode="0.00E+00">
-                  <c:v>7.8040477200267344E-4</c:v>
+                  <c:v>8.4189728208775873E-4</c:v>
                 </c:pt>
                 <c:pt idx="20" formatCode="0.00E+00">
-                  <c:v>7.777140437446856E-4</c:v>
+                  <c:v>8.3597010593055589E-4</c:v>
                 </c:pt>
                 <c:pt idx="21" formatCode="0.00E+00">
-                  <c:v>7.7502331548669776E-4</c:v>
+                  <c:v>8.3004292977335305E-4</c:v>
                 </c:pt>
                 <c:pt idx="22" formatCode="0.00E+00">
-                  <c:v>7.7233258722870992E-4</c:v>
+                  <c:v>8.2411575361615022E-4</c:v>
                 </c:pt>
                 <c:pt idx="23" formatCode="0.00E+00">
-                  <c:v>7.6964185897072208E-4</c:v>
+                  <c:v>8.1818857745894738E-4</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="0.00E+00">
-                  <c:v>7.6695113071273424E-4</c:v>
+                  <c:v>8.1226140130174454E-4</c:v>
                 </c:pt>
                 <c:pt idx="25" formatCode="0.00E+00">
-                  <c:v>7.642604024547464E-4</c:v>
+                  <c:v>8.063342251445417E-4</c:v>
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00E+00">
-                  <c:v>7.6156967419675856E-4</c:v>
+                  <c:v>8.0040704898733887E-4</c:v>
                 </c:pt>
                 <c:pt idx="27" formatCode="0.00E+00">
-                  <c:v>7.5887894593877072E-4</c:v>
+                  <c:v>7.9447987283013603E-4</c:v>
                 </c:pt>
                 <c:pt idx="28" formatCode="0.00E+00">
-                  <c:v>7.5618821768078288E-4</c:v>
+                  <c:v>7.8855269667293319E-4</c:v>
                 </c:pt>
                 <c:pt idx="29" formatCode="0.00E+00">
-                  <c:v>7.5349748942279504E-4</c:v>
+                  <c:v>7.8262552051573035E-4</c:v>
                 </c:pt>
                 <c:pt idx="30" formatCode="0.00E+00">
-                  <c:v>7.508067611648072E-4</c:v>
+                  <c:v>7.7669834435852752E-4</c:v>
                 </c:pt>
                 <c:pt idx="31" formatCode="0.00E+00">
-                  <c:v>7.4811603290681936E-4</c:v>
+                  <c:v>7.7077116820132468E-4</c:v>
                 </c:pt>
                 <c:pt idx="32" formatCode="0.00E+00">
-                  <c:v>7.4542530464883152E-4</c:v>
+                  <c:v>7.6484399204412184E-4</c:v>
                 </c:pt>
                 <c:pt idx="33" formatCode="0.00E+00">
-                  <c:v>7.4273457639084369E-4</c:v>
+                  <c:v>7.58916815886919E-4</c:v>
                 </c:pt>
                 <c:pt idx="34" formatCode="0.00E+00">
-                  <c:v>7.4004384813285585E-4</c:v>
+                  <c:v>7.5298963972971616E-4</c:v>
                 </c:pt>
                 <c:pt idx="35" formatCode="0.00E+00">
-                  <c:v>7.3735311987486801E-4</c:v>
+                  <c:v>7.4706246357251333E-4</c:v>
                 </c:pt>
                 <c:pt idx="36" formatCode="0.00E+00">
-                  <c:v>7.3466239161688017E-4</c:v>
+                  <c:v>7.4113528741531049E-4</c:v>
                 </c:pt>
                 <c:pt idx="37" formatCode="0.00E+00">
                   <c:v>7.2928093510090471E-4</c:v>
@@ -4458,7 +4461,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4470,7 +4473,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4955,7 +4957,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4967,7 +4969,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5452,7 +5453,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5464,7 +5465,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5980,7 +5980,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5992,7 +5992,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6507,7 +6506,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6519,7 +6518,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7586,6 +7584,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7621,6 +7636,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7796,17 +7828,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" customWidth="1"/>
-    <col min="2" max="2" width="107.3984375" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="107.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8016,7 +8048,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -8024,7 +8056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8034,12 +8066,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" ht="16">
       <c r="A1" s="28" t="s">
         <v>87</v>
       </c>
@@ -8143,127 +8175,127 @@
       </c>
       <c r="B2" s="29">
         <f t="array" ref="B2:B8">TRANSPOSE(SYFAFE!B11:H11)</f>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="C2" s="29">
         <f>B2</f>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="D2" s="29">
         <f t="shared" ref="D2:AF8" si="0">C2</f>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="E2" s="29">
         <f t="shared" si="0"/>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="F2" s="29">
         <f t="shared" si="0"/>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="G2" s="29">
         <f t="shared" si="0"/>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="H2" s="29">
         <f t="shared" si="0"/>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="I2" s="29">
         <f t="shared" si="0"/>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="J2" s="29">
         <f t="shared" si="0"/>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="K2" s="29">
         <f t="shared" si="0"/>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="L2" s="29">
         <f t="shared" si="0"/>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="M2" s="29">
         <f t="shared" si="0"/>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="N2" s="29">
         <f t="shared" si="0"/>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="O2" s="29">
         <f t="shared" si="0"/>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="P2" s="29">
         <f t="shared" si="0"/>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="Q2" s="29">
         <f t="shared" si="0"/>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="R2" s="29">
         <f t="shared" si="0"/>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="S2" s="29">
         <f t="shared" si="0"/>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="T2" s="29">
         <f t="shared" si="0"/>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="U2" s="29">
         <f t="shared" si="0"/>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="V2" s="29">
         <f t="shared" si="0"/>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="W2" s="29">
         <f t="shared" si="0"/>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="X2" s="29">
         <f t="shared" si="0"/>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="Y2" s="29">
         <f t="shared" si="0"/>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="Z2" s="29">
         <f t="shared" si="0"/>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="AA2" s="29">
         <f t="shared" si="0"/>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="AB2" s="29">
         <f t="shared" si="0"/>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="AC2" s="29">
         <f t="shared" si="0"/>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="AD2" s="29">
         <f t="shared" si="0"/>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="AE2" s="29">
         <f t="shared" si="0"/>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="AF2" s="29">
         <f t="shared" si="0"/>
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -8273,127 +8305,127 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="C3" s="29">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="D3" s="29">
         <f t="shared" si="1"/>
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="E3" s="29">
         <f t="shared" si="1"/>
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="F3" s="29">
         <f t="shared" si="1"/>
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="G3" s="29">
         <f t="shared" si="1"/>
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="H3" s="29">
         <f t="shared" si="1"/>
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="I3" s="29">
         <f t="shared" si="1"/>
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="J3" s="29">
         <f t="shared" si="1"/>
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="K3" s="29">
         <f t="shared" si="1"/>
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="L3" s="29">
         <f t="shared" si="1"/>
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="M3" s="29">
         <f t="shared" si="1"/>
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="N3" s="29">
         <f t="shared" si="1"/>
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="O3" s="29">
         <f t="shared" si="1"/>
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="P3" s="29">
         <f t="shared" si="1"/>
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="29">
         <f t="shared" si="1"/>
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="R3" s="29">
         <f t="shared" si="1"/>
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="S3" s="29">
         <f t="shared" si="0"/>
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="T3" s="29">
         <f t="shared" si="0"/>
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="U3" s="29">
         <f t="shared" si="0"/>
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="V3" s="29">
         <f t="shared" si="0"/>
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="W3" s="29">
         <f t="shared" si="0"/>
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="X3" s="29">
         <f t="shared" si="0"/>
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="29">
         <f t="shared" si="0"/>
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="29">
         <f t="shared" si="0"/>
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="29">
         <f t="shared" si="0"/>
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="29">
         <f t="shared" si="0"/>
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="29">
         <f t="shared" si="0"/>
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="29">
         <f t="shared" si="0"/>
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="29">
         <f t="shared" si="0"/>
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="29">
         <f t="shared" si="0"/>
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
@@ -8403,127 +8435,127 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="C4" s="29">
         <f t="shared" si="1"/>
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="D4" s="29">
         <f t="shared" si="0"/>
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="E4" s="29">
         <f t="shared" si="0"/>
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="F4" s="29">
         <f t="shared" si="0"/>
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="G4" s="29">
         <f t="shared" si="0"/>
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="H4" s="29">
         <f t="shared" si="0"/>
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="I4" s="29">
         <f t="shared" si="0"/>
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="J4" s="29">
         <f t="shared" si="0"/>
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="K4" s="29">
         <f t="shared" si="0"/>
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="L4" s="29">
         <f t="shared" si="0"/>
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="M4" s="29">
         <f t="shared" si="0"/>
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="N4" s="29">
         <f t="shared" si="0"/>
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="O4" s="29">
         <f t="shared" si="0"/>
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="P4" s="29">
         <f t="shared" si="0"/>
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="Q4" s="29">
         <f t="shared" si="0"/>
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="R4" s="29">
         <f t="shared" si="0"/>
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="S4" s="29">
         <f t="shared" si="0"/>
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="T4" s="29">
         <f t="shared" si="0"/>
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="U4" s="29">
         <f t="shared" si="0"/>
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="V4" s="29">
         <f t="shared" si="0"/>
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="W4" s="29">
         <f t="shared" si="0"/>
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="X4" s="29">
         <f t="shared" si="0"/>
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="Y4" s="29">
         <f t="shared" si="0"/>
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="Z4" s="29">
         <f t="shared" si="0"/>
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="AA4" s="29">
         <f t="shared" si="0"/>
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="AB4" s="29">
         <f t="shared" si="0"/>
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="AC4" s="29">
         <f t="shared" si="0"/>
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="AD4" s="29">
         <f t="shared" si="0"/>
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="AE4" s="29">
         <f t="shared" si="0"/>
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="AF4" s="29">
         <f t="shared" si="0"/>
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
@@ -8533,127 +8565,127 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="C5" s="29">
         <f t="shared" si="1"/>
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="D5" s="29">
         <f t="shared" si="0"/>
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="E5" s="29">
         <f t="shared" si="0"/>
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="F5" s="29">
         <f t="shared" si="0"/>
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="G5" s="29">
         <f t="shared" si="0"/>
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="H5" s="29">
         <f t="shared" si="0"/>
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="I5" s="29">
         <f t="shared" si="0"/>
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="J5" s="29">
         <f t="shared" si="0"/>
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="K5" s="29">
         <f t="shared" si="0"/>
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="L5" s="29">
         <f t="shared" si="0"/>
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="M5" s="29">
         <f t="shared" si="0"/>
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="N5" s="29">
         <f t="shared" si="0"/>
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="O5" s="29">
         <f t="shared" si="0"/>
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="P5" s="29">
         <f t="shared" si="0"/>
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="Q5" s="29">
         <f t="shared" si="0"/>
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="R5" s="29">
         <f t="shared" si="0"/>
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="S5" s="29">
         <f t="shared" si="0"/>
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="T5" s="29">
         <f t="shared" si="0"/>
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="U5" s="29">
         <f t="shared" si="0"/>
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="V5" s="29">
         <f t="shared" si="0"/>
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="W5" s="29">
         <f t="shared" si="0"/>
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="X5" s="29">
         <f t="shared" si="0"/>
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="Y5" s="29">
         <f t="shared" si="0"/>
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="Z5" s="29">
         <f t="shared" si="0"/>
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="AA5" s="29">
         <f t="shared" si="0"/>
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="AB5" s="29">
         <f t="shared" si="0"/>
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="AC5" s="29">
         <f t="shared" si="0"/>
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="AD5" s="29">
         <f t="shared" si="0"/>
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="AE5" s="29">
         <f t="shared" si="0"/>
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="AF5" s="29">
         <f t="shared" si="0"/>
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -8663,127 +8695,127 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="C6" s="29">
         <f t="shared" si="1"/>
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="D6" s="29">
         <f t="shared" si="0"/>
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="E6" s="29">
         <f t="shared" si="0"/>
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="F6" s="29">
         <f t="shared" si="0"/>
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="G6" s="29">
         <f t="shared" si="0"/>
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="H6" s="29">
         <f t="shared" si="0"/>
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="I6" s="29">
         <f t="shared" si="0"/>
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="J6" s="29">
         <f t="shared" si="0"/>
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="K6" s="29">
         <f t="shared" si="0"/>
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="L6" s="29">
         <f t="shared" si="0"/>
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="M6" s="29">
         <f t="shared" si="0"/>
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="N6" s="29">
         <f t="shared" si="0"/>
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="O6" s="29">
         <f t="shared" si="0"/>
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="P6" s="29">
         <f t="shared" si="0"/>
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="29">
         <f t="shared" si="0"/>
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="R6" s="29">
         <f t="shared" si="0"/>
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="S6" s="29">
         <f t="shared" si="0"/>
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="T6" s="29">
         <f t="shared" si="0"/>
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="U6" s="29">
         <f t="shared" si="0"/>
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="V6" s="29">
         <f t="shared" si="0"/>
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="W6" s="29">
         <f t="shared" si="0"/>
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="X6" s="29">
         <f t="shared" si="0"/>
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="29">
         <f t="shared" si="0"/>
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="29">
         <f t="shared" si="0"/>
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="29">
         <f t="shared" si="0"/>
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="29">
         <f t="shared" si="0"/>
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="29">
         <f t="shared" si="0"/>
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="29">
         <f t="shared" si="0"/>
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="29">
         <f t="shared" si="0"/>
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="29">
         <f t="shared" si="0"/>
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
@@ -8793,127 +8825,127 @@
         <v>84</v>
       </c>
       <c r="B7" s="4">
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="C7" s="29">
         <f t="shared" si="1"/>
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="D7" s="29">
         <f t="shared" si="0"/>
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="E7" s="29">
         <f t="shared" si="0"/>
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="F7" s="29">
         <f t="shared" si="0"/>
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" si="0"/>
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="H7" s="29">
         <f t="shared" si="0"/>
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="I7" s="29">
         <f t="shared" si="0"/>
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="J7" s="29">
         <f t="shared" si="0"/>
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="K7" s="29">
         <f t="shared" si="0"/>
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="L7" s="29">
         <f t="shared" si="0"/>
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="M7" s="29">
         <f t="shared" si="0"/>
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="N7" s="29">
         <f t="shared" si="0"/>
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="O7" s="29">
         <f t="shared" si="0"/>
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="P7" s="29">
         <f t="shared" si="0"/>
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="29">
         <f t="shared" si="0"/>
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="R7" s="29">
         <f t="shared" si="0"/>
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="S7" s="29">
         <f t="shared" si="0"/>
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="T7" s="29">
         <f t="shared" si="0"/>
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="U7" s="29">
         <f t="shared" si="0"/>
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="V7" s="29">
         <f t="shared" si="0"/>
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="W7" s="29">
         <f t="shared" si="0"/>
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="X7" s="29">
         <f t="shared" si="0"/>
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="29">
         <f t="shared" si="0"/>
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="29">
         <f t="shared" si="0"/>
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="29">
         <f t="shared" si="0"/>
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="29">
         <f t="shared" si="0"/>
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="29">
         <f t="shared" si="0"/>
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="29">
         <f t="shared" si="0"/>
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="29">
         <f t="shared" si="0"/>
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="29">
         <f t="shared" si="0"/>
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
@@ -8923,127 +8955,127 @@
         <v>85</v>
       </c>
       <c r="B8" s="4">
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="C8" s="29">
         <f t="shared" si="1"/>
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="29">
         <f t="shared" si="0"/>
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="E8" s="29">
         <f t="shared" si="0"/>
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="F8" s="29">
         <f t="shared" si="0"/>
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="G8" s="29">
         <f t="shared" si="0"/>
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="H8" s="29">
         <f t="shared" si="0"/>
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="I8" s="29">
         <f t="shared" si="0"/>
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="J8" s="29">
         <f t="shared" si="0"/>
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="K8" s="29">
         <f t="shared" si="0"/>
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="L8" s="29">
         <f t="shared" si="0"/>
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="M8" s="29">
         <f t="shared" si="0"/>
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="N8" s="29">
         <f t="shared" si="0"/>
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="O8" s="29">
         <f t="shared" si="0"/>
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="P8" s="29">
         <f t="shared" si="0"/>
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="29">
         <f t="shared" si="0"/>
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="R8" s="29">
         <f t="shared" si="0"/>
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="S8" s="29">
         <f t="shared" si="0"/>
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="T8" s="29">
         <f t="shared" si="0"/>
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="U8" s="29">
         <f t="shared" si="0"/>
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="V8" s="29">
         <f t="shared" si="0"/>
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="W8" s="29">
         <f t="shared" si="0"/>
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="X8" s="29">
         <f t="shared" si="0"/>
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="29">
         <f t="shared" si="0"/>
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="29">
         <f t="shared" si="0"/>
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="29">
         <f t="shared" si="0"/>
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="29">
         <f t="shared" si="0"/>
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="29">
         <f t="shared" si="0"/>
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="29">
         <f t="shared" si="0"/>
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="29">
         <f t="shared" si="0"/>
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="29">
         <f t="shared" si="0"/>
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -9054,7 +9086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -9064,12 +9096,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" ht="16">
       <c r="A1" s="28" t="s">
         <v>87</v>
       </c>
@@ -9958,7 +9990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -9968,12 +10000,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" ht="16">
       <c r="A1" s="28" t="s">
         <v>87</v>
       </c>
@@ -10862,7 +10894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -10872,14 +10904,14 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" ht="16">
       <c r="A1" s="28" t="s">
         <v>87</v>
       </c>
@@ -11802,7 +11834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -11812,12 +11844,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" ht="16">
       <c r="A1" s="28" t="s">
         <v>87</v>
       </c>
@@ -12706,7 +12738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -12716,13 +12748,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" ht="16">
       <c r="A1" s="28" t="s">
         <v>87</v>
       </c>
@@ -12826,127 +12858,127 @@
       </c>
       <c r="B2" s="4">
         <f t="array" ref="B2:B8">TRANSPOSE(SYFAFE!B6:H6)</f>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4">
         <f>B2</f>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:AF8" si="0">C2</f>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4">
         <f t="shared" si="0"/>
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -13084,127 +13116,127 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="1"/>
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="K4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="W4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="X4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -13212,127 +13244,127 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="1"/>
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="R5" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="S5" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="U5" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="V5" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="W5" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4">
         <f t="shared" si="0"/>
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -13598,127 +13630,127 @@
         <v>85</v>
       </c>
       <c r="B8" s="4">
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="1"/>
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="0"/>
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="0"/>
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="0"/>
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="0"/>
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="0"/>
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="0"/>
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="0"/>
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="0"/>
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="0"/>
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="R8" s="4">
         <f t="shared" si="0"/>
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="S8" s="4">
         <f t="shared" si="0"/>
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="T8" s="4">
         <f t="shared" si="0"/>
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="U8" s="4">
         <f t="shared" si="0"/>
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="V8" s="4">
         <f t="shared" si="0"/>
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="W8" s="4">
         <f t="shared" si="0"/>
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="X8" s="4">
         <f t="shared" si="0"/>
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="4">
         <f t="shared" si="0"/>
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="0"/>
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="4">
         <f t="shared" si="0"/>
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="4">
         <f t="shared" si="0"/>
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="4">
         <f t="shared" si="0"/>
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="4">
         <f t="shared" si="0"/>
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="4">
         <f t="shared" si="0"/>
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="4">
         <f t="shared" si="0"/>
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -13729,7 +13761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -13739,12 +13771,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" ht="16">
       <c r="A1" s="28" t="s">
         <v>87</v>
       </c>
@@ -14633,7 +14665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -14643,12 +14675,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" ht="16">
       <c r="A1" s="28" t="s">
         <v>87</v>
       </c>
@@ -14752,127 +14784,127 @@
       </c>
       <c r="B2" s="4">
         <f t="array" ref="B2:B8">TRANSPOSE(SYFAFE!B7:H7)</f>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="C2" s="4">
         <f>B2</f>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:AF8" si="0">C2</f>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="H2" s="4">
         <f t="shared" si="0"/>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="I2" s="4">
         <f t="shared" si="0"/>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="J2" s="4">
         <f t="shared" si="0"/>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="K2" s="4">
         <f t="shared" si="0"/>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="N2" s="4">
         <f t="shared" si="0"/>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="O2" s="4">
         <f t="shared" si="0"/>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="P2" s="4">
         <f t="shared" si="0"/>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="Q2" s="4">
         <f t="shared" si="0"/>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="R2" s="4">
         <f t="shared" si="0"/>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="S2" s="4">
         <f t="shared" si="0"/>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="T2" s="4">
         <f t="shared" si="0"/>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="U2" s="4">
         <f t="shared" si="0"/>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="V2" s="4">
         <f t="shared" si="0"/>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="W2" s="4">
         <f t="shared" si="0"/>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="X2" s="4">
         <f t="shared" si="0"/>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="Y2" s="4">
         <f t="shared" si="0"/>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="Z2" s="4">
         <f t="shared" si="0"/>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="AA2" s="4">
         <f t="shared" si="0"/>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="AB2" s="4">
         <f t="shared" si="0"/>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="AC2" s="4">
         <f t="shared" si="0"/>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="AD2" s="4">
         <f t="shared" si="0"/>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="AE2" s="4">
         <f t="shared" si="0"/>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="AF2" s="4">
         <f t="shared" si="0"/>
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -14882,127 +14914,127 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="1"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" si="1"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" si="1"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="1"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="1"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="1"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" si="1"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="1"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="1"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="1"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="N3" s="4">
         <f t="shared" si="1"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" si="1"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" si="1"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="Q3" s="4">
         <f t="shared" si="1"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" si="1"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="S3" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="U3" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="V3" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="W3" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="X3" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="Y3" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="AA3" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="AB3" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="AC3" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="AD3" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="AE3" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="AF3" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
@@ -15012,127 +15044,127 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="1"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="K4" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="U4" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="V4" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="W4" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="X4" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="Y4" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="AA4" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="AB4" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="AC4" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="AD4" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="AE4" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="AF4" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
@@ -15142,127 +15174,127 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="1"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="R5" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="S5" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="U5" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="V5" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="W5" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="Y5" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="AA5" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="AB5" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="AC5" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="AE5" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="AF5" s="4">
         <f t="shared" si="0"/>
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -15272,127 +15304,127 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="1"/>
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="0"/>
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="0"/>
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="0"/>
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="0"/>
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="0"/>
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" si="0"/>
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="N6" s="4">
         <f t="shared" si="0"/>
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="O6" s="4">
         <f t="shared" si="0"/>
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" si="0"/>
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="Q6" s="4">
         <f t="shared" si="0"/>
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="R6" s="4">
         <f t="shared" si="0"/>
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="S6" s="4">
         <f t="shared" si="0"/>
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="T6" s="4">
         <f t="shared" si="0"/>
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="U6" s="4">
         <f t="shared" si="0"/>
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="V6" s="4">
         <f t="shared" si="0"/>
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="W6" s="4">
         <f t="shared" si="0"/>
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="X6" s="4">
         <f t="shared" si="0"/>
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="Y6" s="4">
         <f t="shared" si="0"/>
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="Z6" s="4">
         <f t="shared" si="0"/>
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="AA6" s="4">
         <f t="shared" si="0"/>
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="AB6" s="4">
         <f t="shared" si="0"/>
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="AC6" s="4">
         <f t="shared" si="0"/>
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="AD6" s="4">
         <f t="shared" si="0"/>
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="AE6" s="4">
         <f t="shared" si="0"/>
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="AF6" s="4">
         <f t="shared" si="0"/>
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
@@ -15402,127 +15434,127 @@
         <v>84</v>
       </c>
       <c r="B7" s="4">
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="1"/>
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="0"/>
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="0"/>
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="0"/>
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="K7" s="4">
         <f t="shared" si="0"/>
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" si="0"/>
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="0"/>
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" si="0"/>
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="0"/>
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="0"/>
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="0"/>
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="R7" s="4">
         <f t="shared" si="0"/>
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="S7" s="4">
         <f t="shared" si="0"/>
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="T7" s="4">
         <f t="shared" si="0"/>
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="U7" s="4">
         <f t="shared" si="0"/>
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="V7" s="4">
         <f t="shared" si="0"/>
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="W7" s="4">
         <f t="shared" si="0"/>
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="X7" s="4">
         <f t="shared" si="0"/>
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="Y7" s="4">
         <f t="shared" si="0"/>
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="Z7" s="4">
         <f t="shared" si="0"/>
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="AA7" s="4">
         <f t="shared" si="0"/>
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="AB7" s="4">
         <f t="shared" si="0"/>
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="AC7" s="4">
         <f t="shared" si="0"/>
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="AD7" s="4">
         <f t="shared" si="0"/>
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="AE7" s="4">
         <f t="shared" si="0"/>
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="AF7" s="4">
         <f t="shared" si="0"/>
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
@@ -15532,127 +15564,127 @@
         <v>85</v>
       </c>
       <c r="B8" s="4">
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="1"/>
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="0"/>
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="0"/>
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="0"/>
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="0"/>
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="0"/>
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="0"/>
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="0"/>
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="0"/>
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="0"/>
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="R8" s="4">
         <f t="shared" si="0"/>
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="S8" s="4">
         <f t="shared" si="0"/>
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="T8" s="4">
         <f t="shared" si="0"/>
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="U8" s="4">
         <f t="shared" si="0"/>
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="V8" s="4">
         <f t="shared" si="0"/>
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="W8" s="4">
         <f t="shared" si="0"/>
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="X8" s="4">
         <f t="shared" si="0"/>
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="Y8" s="4">
         <f t="shared" si="0"/>
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="0"/>
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="AA8" s="4">
         <f t="shared" si="0"/>
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="AB8" s="4">
         <f t="shared" si="0"/>
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="AC8" s="4">
         <f t="shared" si="0"/>
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="AD8" s="4">
         <f t="shared" si="0"/>
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="AE8" s="4">
         <f t="shared" si="0"/>
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="AF8" s="4">
         <f t="shared" si="0"/>
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -15663,7 +15695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -15673,12 +15705,12 @@
       <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" ht="16">
       <c r="A1" s="28" t="s">
         <v>87</v>
       </c>
@@ -16492,18 +16524,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AL30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:AH20"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" customWidth="1"/>
-    <col min="3" max="3" width="30.73046875" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -18864,14 +18896,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -18904,25 +18939,25 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="C2">
-        <v>3.2678701664683445E-4</v>
+        <v>2.7395318760812468E-4</v>
       </c>
       <c r="D2">
-        <v>3.1652760292406873E-4</v>
+        <v>3.5027026210730712E-4</v>
       </c>
       <c r="E2">
-        <v>3.9332496832109406E-4</v>
+        <v>2.4617196906787287E-4</v>
       </c>
       <c r="F2">
-        <v>6.7451596682727188E-4</v>
+        <v>5.6546248716058724E-4</v>
       </c>
       <c r="G2">
-        <v>2.7638078960570732E-4</v>
+        <v>2.3169647032813788E-4</v>
       </c>
       <c r="H2">
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -18930,25 +18965,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="C3">
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="E3">
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="F3">
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="G3">
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -18956,16 +18991,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1.4185802505818058E-3</v>
+        <v>6.2901704866926884E-5</v>
       </c>
       <c r="C4">
-        <v>4.4144747020460906E-4</v>
+        <v>1.9574358569896447E-5</v>
       </c>
       <c r="D4">
-        <v>4.4144747020460906E-4</v>
+        <v>1.9574358569896447E-5</v>
       </c>
       <c r="E4">
-        <v>4.4144747020460906E-4</v>
+        <v>1.9574358569896447E-5</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -18974,7 +19009,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.3243424106138271E-3</v>
+        <v>5.8723075709689332E-5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -19008,16 +19043,16 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>3.2293482418666772E-5</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1.0049397002369564E-5</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1.0049397002369565E-5</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -19026,7 +19061,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3.0148191007108693E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -19034,25 +19069,25 @@
         <v>18</v>
       </c>
       <c r="B7">
-        <v>3.5367364645723983E-3</v>
+        <v>1.3344352091230417E-3</v>
       </c>
       <c r="C7">
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="D7">
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="E7">
-        <v>1.110710625237613E-3</v>
+        <v>4.1907882600558346E-4</v>
       </c>
       <c r="F7">
-        <v>2.4450248368717451E-3</v>
+        <v>9.2252483672018552E-4</v>
       </c>
       <c r="G7">
-        <v>8.6080073455915005E-4</v>
+        <v>3.2478609015432718E-4</v>
       </c>
       <c r="H7">
-        <v>3.3321318757128385E-3</v>
+        <v>1.2572364780167502E-3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -19086,25 +19121,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="E10">
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="F10">
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="G10">
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -19112,25 +19147,25 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>2.2211467051641521E-3</v>
+        <v>2.6536209294918999E-3</v>
       </c>
       <c r="C11">
-        <v>4.7352548463232166E-4</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>6.7839079634331792E-3</v>
+        <v>3.0759232726228305E-3</v>
       </c>
       <c r="E11">
-        <v>6.9119783216062313E-4</v>
+        <v>8.257793281175029E-4</v>
       </c>
       <c r="F11">
-        <v>1.0867252882872924E-3</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>2.9305916427068614E-3</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>2.7605411165548288E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -19138,16 +19173,16 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>3.6524335252792104E-4</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1.136599455098666E-4</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>1.136599455098666E-4</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1.136599455098666E-4</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -19156,7 +19191,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3.4097983652959976E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -19243,14 +19278,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="50.3984375" customWidth="1"/>
+    <col min="1" max="1" width="50.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -19350,18 +19385,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="42.1328125" customWidth="1"/>
-    <col min="2" max="2" width="26.3984375" customWidth="1"/>
-    <col min="3" max="3" width="42.86328125" customWidth="1"/>
+    <col min="1" max="1" width="42.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
@@ -19378,8 +19413,8 @@
       <c r="A2" t="s">
         <v>51</v>
       </c>
-      <c r="B2">
-        <v>1.67</v>
+      <c r="B2" s="43">
+        <v>1.4</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="7" t="s">
@@ -19390,7 +19425,7 @@
       <c r="A3" t="s">
         <v>53</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="43">
         <v>1</v>
       </c>
       <c r="C3" s="6"/>
@@ -19399,8 +19434,8 @@
       <c r="A4" t="s">
         <v>54</v>
       </c>
-      <c r="B4">
-        <v>21.2</v>
+      <c r="B4" s="43">
+        <v>35.666666666666664</v>
       </c>
       <c r="C4" s="6"/>
     </row>
@@ -19408,8 +19443,8 @@
       <c r="A5" t="s">
         <v>55</v>
       </c>
-      <c r="B5">
-        <v>16</v>
+      <c r="B5" s="43">
+        <v>17.260730580665893</v>
       </c>
       <c r="C5" s="6"/>
     </row>
@@ -19417,7 +19452,7 @@
       <c r="A6" t="s">
         <v>56</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="43">
         <v>48.656731685074099</v>
       </c>
       <c r="C6" s="6"/>
@@ -19489,7 +19524,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:38" s="22" customFormat="1">
+    <row r="14" spans="1:38" s="22" customFormat="1" ht="16">
       <c r="A14" s="22" t="s">
         <v>64</v>
       </c>
@@ -19511,11 +19546,11 @@
       </c>
       <c r="B16">
         <f>TREND(C16:D16,C13:D13,B13)</f>
-        <v>3.1424986163219176E-4</v>
+        <v>2.6344299777548985E-4</v>
       </c>
       <c r="C16">
         <f>C15*$B$2/$B$9</f>
-        <v>3.142498616321923E-4</v>
+        <v>2.6344299777549056E-4</v>
       </c>
       <c r="D16" s="4">
         <f>BNVFE!D8</f>
@@ -19537,7 +19572,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.5">
+    <row r="20" spans="1:4" ht="32">
       <c r="A20" s="22" t="s">
         <v>68</v>
       </c>
@@ -19546,7 +19581,7 @@
         <v>1.1639344262295082</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="16">
       <c r="A21" s="22" t="s">
         <v>69</v>
       </c>
@@ -19555,13 +19590,13 @@
         <v>6.7042622950819668</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.5">
+    <row r="22" spans="1:4" ht="32">
       <c r="A22" s="22" t="s">
         <v>70</v>
       </c>
       <c r="B22">
         <f>B21*$B$5/$B$10</f>
-        <v>7.8040477200267344E-4</v>
+        <v>8.4189728208775873E-4</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -19639,19 +19674,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BT15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V5" sqref="V5"/>
+    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ3" sqref="AJ3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="15" max="15" width="11.3984375" customWidth="1"/>
-    <col min="39" max="39" width="9.1328125" style="13"/>
+    <col min="15" max="15" width="11.33203125" customWidth="1"/>
+    <col min="39" max="39" width="9.1640625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -19893,55 +19928,55 @@
       <c r="Z2" s="11"/>
       <c r="AA2" s="17">
         <f>Calculations!C16</f>
-        <v>3.142498616321923E-4</v>
+        <v>2.6344299777549056E-4</v>
       </c>
       <c r="AB2" s="17">
         <f>($AN$2-$AA$2)/COUNT($AB$1:$AN$1)+AA2</f>
-        <v>3.2092630056054029E-4</v>
+        <v>2.7402765700050791E-4</v>
       </c>
       <c r="AC2" s="17">
         <f t="shared" ref="AC2:AM2" si="0">($AN$2-$AA$2)/COUNT($AB$1:$AN$1)+AB2</f>
-        <v>3.2760273948888828E-4</v>
+        <v>2.8461231622552526E-4</v>
       </c>
       <c r="AD2" s="17">
         <f t="shared" si="0"/>
-        <v>3.3427917841723627E-4</v>
+        <v>2.9519697545054262E-4</v>
       </c>
       <c r="AE2" s="17">
         <f t="shared" si="0"/>
-        <v>3.4095561734558426E-4</v>
+        <v>3.0578163467555997E-4</v>
       </c>
       <c r="AF2" s="17">
         <f t="shared" si="0"/>
-        <v>3.4763205627393225E-4</v>
+        <v>3.1636629390057732E-4</v>
       </c>
       <c r="AG2" s="17">
         <f t="shared" si="0"/>
-        <v>3.5430849520228023E-4</v>
+        <v>3.2695095312559468E-4</v>
       </c>
       <c r="AH2" s="17">
         <f t="shared" si="0"/>
-        <v>3.6098493413062822E-4</v>
+        <v>3.3753561235061203E-4</v>
       </c>
       <c r="AI2" s="17">
         <f t="shared" si="0"/>
-        <v>3.6766137305897621E-4</v>
+        <v>3.4812027157562938E-4</v>
       </c>
       <c r="AJ2" s="17">
         <f t="shared" si="0"/>
-        <v>3.743378119873242E-4</v>
+        <v>3.5870493080064674E-4</v>
       </c>
       <c r="AK2" s="17">
         <f t="shared" si="0"/>
-        <v>3.8101425091567219E-4</v>
+        <v>3.6928959002566409E-4</v>
       </c>
       <c r="AL2" s="17">
         <f t="shared" si="0"/>
-        <v>3.8769068984402017E-4</v>
+        <v>3.7987424925068144E-4</v>
       </c>
       <c r="AM2" s="31">
         <f t="shared" si="0"/>
-        <v>3.9436712877236816E-4</v>
+        <v>3.904589084756988E-4</v>
       </c>
       <c r="AN2" s="15">
         <f>BNVFE!D8</f>
@@ -20298,115 +20333,115 @@
       <c r="K4" s="11"/>
       <c r="L4" s="17">
         <f>L5/M5*M4</f>
-        <v>1.0544082239246518E-3</v>
+        <v>1.1374910172001159E-3</v>
       </c>
       <c r="M4" s="17">
         <f t="shared" ref="M4:AI4" si="1">M5/N5*N4</f>
-        <v>1.0544082239246518E-3</v>
+        <v>1.1374910172001159E-3</v>
       </c>
       <c r="N4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0544082239246518E-3</v>
+        <v>1.1374910172001159E-3</v>
       </c>
       <c r="O4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0544082239246518E-3</v>
+        <v>1.1374910172001159E-3</v>
       </c>
       <c r="P4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0544082239246518E-3</v>
+        <v>1.1374910172001159E-3</v>
       </c>
       <c r="Q4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0544082239246518E-3</v>
+        <v>1.1374910172001159E-3</v>
       </c>
       <c r="R4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0544082239246518E-3</v>
+        <v>1.1374910172001159E-3</v>
       </c>
       <c r="S4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0544082239246518E-3</v>
+        <v>1.1374910172001159E-3</v>
       </c>
       <c r="T4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0544082239246518E-3</v>
+        <v>1.1374910172001159E-3</v>
       </c>
       <c r="U4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0544082239246518E-3</v>
+        <v>1.1374910172001159E-3</v>
       </c>
       <c r="V4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0544082239246518E-3</v>
+        <v>1.1374910172001159E-3</v>
       </c>
       <c r="W4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0507727694715886E-3</v>
+        <v>1.1294827841536073E-3</v>
       </c>
       <c r="X4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0471373150185254E-3</v>
+        <v>1.1214745511070987E-3</v>
       </c>
       <c r="Y4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0435018605654625E-3</v>
+        <v>1.11346631806059E-3</v>
       </c>
       <c r="Z4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0398664061123993E-3</v>
+        <v>1.1054580850140814E-3</v>
       </c>
       <c r="AA4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0362309516593362E-3</v>
+        <v>1.0974498519675728E-3</v>
       </c>
       <c r="AB4" s="17">
         <f t="shared" si="1"/>
-        <v>1.032595497206273E-3</v>
+        <v>1.0894416189210642E-3</v>
       </c>
       <c r="AC4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0289600427532098E-3</v>
+        <v>1.0814333858745555E-3</v>
       </c>
       <c r="AD4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0253245883001466E-3</v>
+        <v>1.0734251528280471E-3</v>
       </c>
       <c r="AE4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0216891338470835E-3</v>
+        <v>1.0654169197815385E-3</v>
       </c>
       <c r="AF4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0180536793940205E-3</v>
+        <v>1.0574086867350299E-3</v>
       </c>
       <c r="AG4" s="17">
         <f>AG5/AH5*AH4</f>
-        <v>1.0144182249409574E-3</v>
+        <v>1.0494004536885212E-3</v>
       </c>
       <c r="AH4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0107827704878942E-3</v>
+        <v>1.0413922206420126E-3</v>
       </c>
       <c r="AI4" s="17">
         <f t="shared" si="1"/>
-        <v>1.0071473160348312E-3</v>
+        <v>1.033383987595504E-3</v>
       </c>
       <c r="AJ4" s="17">
         <f>AJ5/AK5*AK4</f>
-        <v>1.0035118615817681E-3</v>
+        <v>1.0253757545489954E-3</v>
       </c>
       <c r="AK4" s="30">
         <f>AK5/AL5*AL4</f>
-        <v>9.998764071287049E-4</v>
+        <v>1.017367521502487E-3</v>
       </c>
       <c r="AL4" s="30">
         <f>AL5/AM5*AM4</f>
-        <v>9.9624095267564173E-4</v>
+        <v>1.0093592884559785E-3</v>
       </c>
       <c r="AM4" s="31">
         <f>AM5/AN5*AN4</f>
-        <v>9.9260549822257856E-4</v>
+        <v>1.0013510554094699E-3</v>
       </c>
       <c r="AN4" s="15">
         <f>BNVFE!D10</f>
@@ -20553,115 +20588,115 @@
       <c r="K5" s="11"/>
       <c r="L5" s="17">
         <f>M5</f>
-        <v>7.8040477200267344E-4</v>
+        <v>8.4189728208775873E-4</v>
       </c>
       <c r="M5" s="17">
         <f t="shared" ref="M5:T5" si="2">N5</f>
-        <v>7.8040477200267344E-4</v>
+        <v>8.4189728208775873E-4</v>
       </c>
       <c r="N5" s="17">
         <f t="shared" si="2"/>
-        <v>7.8040477200267344E-4</v>
+        <v>8.4189728208775873E-4</v>
       </c>
       <c r="O5" s="17">
         <f t="shared" si="2"/>
-        <v>7.8040477200267344E-4</v>
+        <v>8.4189728208775873E-4</v>
       </c>
       <c r="P5" s="17">
         <f t="shared" si="2"/>
-        <v>7.8040477200267344E-4</v>
+        <v>8.4189728208775873E-4</v>
       </c>
       <c r="Q5" s="17">
         <f t="shared" si="2"/>
-        <v>7.8040477200267344E-4</v>
+        <v>8.4189728208775873E-4</v>
       </c>
       <c r="R5" s="17">
         <f t="shared" si="2"/>
-        <v>7.8040477200267344E-4</v>
+        <v>8.4189728208775873E-4</v>
       </c>
       <c r="S5" s="17">
         <f t="shared" si="2"/>
-        <v>7.8040477200267344E-4</v>
+        <v>8.4189728208775873E-4</v>
       </c>
       <c r="T5" s="17">
         <f t="shared" si="2"/>
-        <v>7.8040477200267344E-4</v>
+        <v>8.4189728208775873E-4</v>
       </c>
       <c r="U5" s="17">
         <f>V5</f>
-        <v>7.8040477200267344E-4</v>
+        <v>8.4189728208775873E-4</v>
       </c>
       <c r="V5" s="40">
         <f>Calculations!B22</f>
-        <v>7.8040477200267344E-4</v>
+        <v>8.4189728208775873E-4</v>
       </c>
       <c r="W5" s="17">
         <f>($AN$5-$V$5)/COUNT($V$1:$AN$1)+V5</f>
-        <v>7.777140437446856E-4</v>
+        <v>8.3597010593055589E-4</v>
       </c>
       <c r="X5" s="17">
         <f t="shared" ref="X5:AM5" si="3">($AN$5-$V$5)/COUNT($V$1:$AN$1)+W5</f>
-        <v>7.7502331548669776E-4</v>
+        <v>8.3004292977335305E-4</v>
       </c>
       <c r="Y5" s="17">
         <f t="shared" si="3"/>
-        <v>7.7233258722870992E-4</v>
+        <v>8.2411575361615022E-4</v>
       </c>
       <c r="Z5" s="17">
         <f t="shared" si="3"/>
-        <v>7.6964185897072208E-4</v>
+        <v>8.1818857745894738E-4</v>
       </c>
       <c r="AA5" s="17">
         <f t="shared" si="3"/>
-        <v>7.6695113071273424E-4</v>
+        <v>8.1226140130174454E-4</v>
       </c>
       <c r="AB5" s="17">
         <f t="shared" si="3"/>
-        <v>7.642604024547464E-4</v>
+        <v>8.063342251445417E-4</v>
       </c>
       <c r="AC5" s="17">
         <f t="shared" si="3"/>
-        <v>7.6156967419675856E-4</v>
+        <v>8.0040704898733887E-4</v>
       </c>
       <c r="AD5" s="17">
         <f t="shared" si="3"/>
-        <v>7.5887894593877072E-4</v>
+        <v>7.9447987283013603E-4</v>
       </c>
       <c r="AE5" s="17">
         <f t="shared" si="3"/>
-        <v>7.5618821768078288E-4</v>
+        <v>7.8855269667293319E-4</v>
       </c>
       <c r="AF5" s="17">
         <f t="shared" si="3"/>
-        <v>7.5349748942279504E-4</v>
+        <v>7.8262552051573035E-4</v>
       </c>
       <c r="AG5" s="17">
         <f t="shared" si="3"/>
-        <v>7.508067611648072E-4</v>
+        <v>7.7669834435852752E-4</v>
       </c>
       <c r="AH5" s="17">
         <f t="shared" si="3"/>
-        <v>7.4811603290681936E-4</v>
+        <v>7.7077116820132468E-4</v>
       </c>
       <c r="AI5" s="17">
         <f t="shared" si="3"/>
-        <v>7.4542530464883152E-4</v>
+        <v>7.6484399204412184E-4</v>
       </c>
       <c r="AJ5" s="17">
         <f t="shared" si="3"/>
-        <v>7.4273457639084369E-4</v>
+        <v>7.58916815886919E-4</v>
       </c>
       <c r="AK5" s="17">
         <f t="shared" si="3"/>
-        <v>7.4004384813285585E-4</v>
+        <v>7.5298963972971616E-4</v>
       </c>
       <c r="AL5" s="17">
         <f t="shared" si="3"/>
-        <v>7.3735311987486801E-4</v>
+        <v>7.4706246357251333E-4</v>
       </c>
       <c r="AM5" s="41">
         <f t="shared" si="3"/>
-        <v>7.3466239161688017E-4</v>
+        <v>7.4113528741531049E-4</v>
       </c>
       <c r="AN5" s="15">
         <f>BNVFE!D11</f>
@@ -23090,7 +23125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -23100,12 +23135,12 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" ht="16">
       <c r="A1" s="28" t="s">
         <v>87</v>
       </c>
@@ -23209,127 +23244,127 @@
       </c>
       <c r="B2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="C2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="D2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="E2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="F2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="G2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="H2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="I2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="J2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="K2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="L2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="M2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="N2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="O2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="P2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="Q2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="R2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="S2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="T2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="U2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="V2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="W2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="X2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="Y2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="Z2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="AA2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="AB2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="AC2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="AD2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="AE2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="AF2" s="4">
         <f>SYFAFE!$B$2</f>
-        <v>1.3034527706475435E-3</v>
+        <v>1.0927148975488389E-3</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -23340,55 +23375,55 @@
       </c>
       <c r="B3" s="4">
         <f>BNVFE!B25*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>2.9799192511257997E-4</v>
+        <v>2.4981358991473771E-4</v>
       </c>
       <c r="C3" s="4">
         <f>BNVFE!C25*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.0495642992099084E-4</v>
+        <v>2.6039154731952093E-4</v>
       </c>
       <c r="D3" s="4">
         <f>BNVFE!D25*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.1206914647141513E-4</v>
+        <v>2.7111715469267238E-4</v>
       </c>
       <c r="E3" s="4">
         <f>BNVFE!E25*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.1882187840910213E-4</v>
+        <v>2.8154686349131819E-4</v>
       </c>
       <c r="F3" s="4">
         <f>BNVFE!F25*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.2511303052032729E-4</v>
+        <v>2.9157341562748831E-4</v>
       </c>
       <c r="G3" s="4">
         <f>BNVFE!G25*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.3132507899165593E-4</v>
+        <v>3.015259537351427E-4</v>
       </c>
       <c r="H3" s="4">
         <f>BNVFE!H25*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.3654940106272427E-4</v>
+        <v>3.1056310797313778E-4</v>
       </c>
       <c r="I3" s="4">
         <f>BNVFE!I25*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.4251086081258395E-4</v>
+        <v>3.202616015528104E-4</v>
       </c>
       <c r="J3" s="4">
         <f>BNVFE!J25*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.4855887390285254E-4</v>
+        <v>3.3003306502827121E-4</v>
       </c>
       <c r="K3" s="4">
         <f>BNVFE!K25*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.5467038374657962E-4</v>
+        <v>3.3985884242750141E-4</v>
       </c>
       <c r="L3" s="4">
         <f>BNVFE!L25*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.606941984468817E-4</v>
+        <v>3.4959483103051979E-4</v>
       </c>
       <c r="M3" s="4">
         <f>BNVFE!M25*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.6680695227320973E-4</v>
+        <v>3.5941155994944593E-4</v>
       </c>
       <c r="N3" s="4">
         <f>BNVFE!N25*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.7287562060881878E-4</v>
+        <v>3.6918038344964442E-4</v>
       </c>
       <c r="O3" s="4">
         <f>BNVFE!O25*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
@@ -23471,55 +23506,55 @@
       </c>
       <c r="B4" s="29">
         <f>Extrapolations!AA2</f>
-        <v>3.142498616321923E-4</v>
+        <v>2.6344299777549056E-4</v>
       </c>
       <c r="C4" s="29">
         <f>Extrapolations!AB2</f>
-        <v>3.2092630056054029E-4</v>
+        <v>2.7402765700050791E-4</v>
       </c>
       <c r="D4" s="29">
         <f>Extrapolations!AC2</f>
-        <v>3.2760273948888828E-4</v>
+        <v>2.8461231622552526E-4</v>
       </c>
       <c r="E4" s="29">
         <f>Extrapolations!AD2</f>
-        <v>3.3427917841723627E-4</v>
+        <v>2.9519697545054262E-4</v>
       </c>
       <c r="F4" s="29">
         <f>Extrapolations!AE2</f>
-        <v>3.4095561734558426E-4</v>
+        <v>3.0578163467555997E-4</v>
       </c>
       <c r="G4" s="29">
         <f>Extrapolations!AF2</f>
-        <v>3.4763205627393225E-4</v>
+        <v>3.1636629390057732E-4</v>
       </c>
       <c r="H4" s="29">
         <f>Extrapolations!AG2</f>
-        <v>3.5430849520228023E-4</v>
+        <v>3.2695095312559468E-4</v>
       </c>
       <c r="I4" s="29">
         <f>Extrapolations!AH2</f>
-        <v>3.6098493413062822E-4</v>
+        <v>3.3753561235061203E-4</v>
       </c>
       <c r="J4" s="29">
         <f>Extrapolations!AI2</f>
-        <v>3.6766137305897621E-4</v>
+        <v>3.4812027157562938E-4</v>
       </c>
       <c r="K4" s="29">
         <f>Extrapolations!AJ2</f>
-        <v>3.743378119873242E-4</v>
+        <v>3.5870493080064674E-4</v>
       </c>
       <c r="L4" s="29">
         <f>Extrapolations!AK2</f>
-        <v>3.8101425091567219E-4</v>
+        <v>3.6928959002566409E-4</v>
       </c>
       <c r="M4" s="29">
         <f>Extrapolations!AL2</f>
-        <v>3.8769068984402017E-4</v>
+        <v>3.7987424925068144E-4</v>
       </c>
       <c r="N4" s="29">
         <f>Extrapolations!AM2</f>
-        <v>3.9436712877236816E-4</v>
+        <v>3.904589084756988E-4</v>
       </c>
       <c r="O4" s="29">
         <f>Extrapolations!AN2</f>
@@ -23602,55 +23637,55 @@
       </c>
       <c r="B5" s="4">
         <f>BNVFE!B27*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>3.3039537831752443E-4</v>
+        <v>2.769781614637929E-4</v>
       </c>
       <c r="C5" s="4">
         <f>BNVFE!C27*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>3.3247079907851041E-4</v>
+        <v>2.8388509739912809E-4</v>
       </c>
       <c r="D5" s="4">
         <f>BNVFE!D27*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>3.3608525156768267E-4</v>
+        <v>2.9198169113955446E-4</v>
       </c>
       <c r="E5" s="4">
         <f>BNVFE!E27*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.4140601212844754E-4</v>
+        <v>3.014905764042419E-4</v>
       </c>
       <c r="F5" s="4">
         <f>BNVFE!F27*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.4682483192820804E-4</v>
+        <v>3.110453638474342E-4</v>
       </c>
       <c r="G5" s="4">
         <f>BNVFE!G27*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.5399117808755025E-4</v>
+        <v>3.221534811415933E-4</v>
       </c>
       <c r="H5" s="4">
         <f>BNVFE!H27*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.5770234384308779E-4</v>
+        <v>3.3008274946381831E-4</v>
       </c>
       <c r="I5" s="4">
         <f>BNVFE!I27*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.6308195251352201E-4</v>
+        <v>3.3949640992706821E-4</v>
       </c>
       <c r="J5" s="4">
         <f>BNVFE!J27*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.6931237060169403E-4</v>
+        <v>3.4968351905022727E-4</v>
       </c>
       <c r="K5" s="4">
         <f>BNVFE!K27*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.7541688009215464E-4</v>
+        <v>3.5973893548165261E-4</v>
       </c>
       <c r="L5" s="4">
         <f>BNVFE!L27*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.8060604014518434E-4</v>
+        <v>3.6889394081381641E-4</v>
       </c>
       <c r="M5" s="4">
         <f>BNVFE!M27*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.8660972321779061E-4</v>
+        <v>3.7881507657421296E-4</v>
       </c>
       <c r="N5" s="4">
         <f>BNVFE!N27*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.926877010252523E-4</v>
+        <v>3.8879612403663069E-4</v>
       </c>
       <c r="O5" s="4">
         <f>BNVFE!O27*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
@@ -23733,55 +23768,55 @@
       </c>
       <c r="B6" s="4">
         <f>BNVFE!B28*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>5.1511255080264186E-4</v>
+        <v>4.3183088091239437E-4</v>
       </c>
       <c r="C6" s="4">
         <f>BNVFE!C28*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>5.2428092566616732E-4</v>
+        <v>4.4766500414401383E-4</v>
       </c>
       <c r="D6" s="4">
         <f>BNVFE!D28*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>5.3102064816912329E-4</v>
+        <v>4.6133624179940701E-4</v>
       </c>
       <c r="E6" s="4">
         <f>BNVFE!E28*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>5.3833911588692471E-4</v>
+        <v>4.753992741306355E-4</v>
       </c>
       <c r="F6" s="4">
         <f>BNVFE!F28*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>5.5418108584188324E-4</v>
+        <v>4.9701013772490222E-4</v>
       </c>
       <c r="G6" s="4">
         <f>BNVFE!G28*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>5.8181999979491409E-4</v>
+        <v>5.2949155214646493E-4</v>
       </c>
       <c r="H6" s="4">
         <f>BNVFE!H28*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>6.1507401996100622E-4</v>
+        <v>5.6758175373196025E-4</v>
       </c>
       <c r="I6" s="4">
         <f>BNVFE!I28*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>6.2764405946183748E-4</v>
+        <v>5.8687275262300309E-4</v>
       </c>
       <c r="J6" s="4">
         <f>BNVFE!J28*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>6.3817589517729746E-4</v>
+        <v>6.0425702078446082E-4</v>
       </c>
       <c r="K6" s="4">
         <f>BNVFE!K28*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>6.4869543049513468E-4</v>
+        <v>6.2160498366735221E-4</v>
       </c>
       <c r="L6" s="4">
         <f>BNVFE!L28*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>6.581047918396357E-4</v>
+        <v>6.3785343510989274E-4</v>
       </c>
       <c r="M6" s="4">
         <f>BNVFE!M28*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>6.6834810198910361E-4</v>
+        <v>6.5487317630293269E-4</v>
       </c>
       <c r="N6" s="4">
         <f>BNVFE!N28*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>6.7910400948621805E-4</v>
+        <v>6.7237401634078137E-4</v>
       </c>
       <c r="O6" s="4">
         <f>BNVFE!O28*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
@@ -23864,55 +23899,55 @@
       </c>
       <c r="B7" s="4">
         <f>BNVFE!B29*('BHNVFEAL-LDVs-psgr'!B$4/BNVFE!B$26)</f>
-        <v>2.8497502058533896E-4</v>
+        <v>2.3890121486196082E-4</v>
       </c>
       <c r="C7" s="4">
         <f>BNVFE!C29*('BHNVFEAL-LDVs-psgr'!C$4/BNVFE!C$26)</f>
-        <v>2.898398018603075E-4</v>
+        <v>2.4748399140409115E-4</v>
       </c>
       <c r="D7" s="4">
         <f>BNVFE!D29*('BHNVFEAL-LDVs-psgr'!D$4/BNVFE!D$26)</f>
-        <v>2.9639229529668671E-4</v>
+        <v>2.5749753438386954E-4</v>
       </c>
       <c r="E7" s="4">
         <f>BNVFE!E29*('BHNVFEAL-LDVs-psgr'!E$4/BNVFE!E$26)</f>
-        <v>3.0225117678650028E-4</v>
+        <v>2.669135231102433E-4</v>
       </c>
       <c r="F7" s="4">
         <f>BNVFE!F29*('BHNVFEAL-LDVs-psgr'!F$4/BNVFE!F$26)</f>
-        <v>3.0778031687736323E-4</v>
+        <v>2.7602879561984387E-4</v>
       </c>
       <c r="G7" s="4">
         <f>BNVFE!G29*('BHNVFEAL-LDVs-psgr'!G$4/BNVFE!G$26)</f>
-        <v>3.1364712087038462E-4</v>
+        <v>2.8543793770318852E-4</v>
       </c>
       <c r="H7" s="4">
         <f>BNVFE!H29*('BHNVFEAL-LDVs-psgr'!H$4/BNVFE!H$26)</f>
-        <v>3.1818917619505965E-4</v>
+        <v>2.9362054774280502E-4</v>
       </c>
       <c r="I7" s="4">
         <f>BNVFE!I29*('BHNVFEAL-LDVs-psgr'!I$4/BNVFE!I$26)</f>
-        <v>3.2376820979030025E-4</v>
+        <v>3.0273645966533467E-4</v>
       </c>
       <c r="J7" s="4">
         <f>BNVFE!J29*('BHNVFEAL-LDVs-psgr'!J$4/BNVFE!J$26)</f>
-        <v>3.2959142944700965E-4</v>
+        <v>3.1207373506078915E-4</v>
       </c>
       <c r="K7" s="4">
         <f>BNVFE!K29*('BHNVFEAL-LDVs-psgr'!K$4/BNVFE!K$26)</f>
-        <v>3.3540222212257912E-4</v>
+        <v>3.2139534672745489E-4</v>
       </c>
       <c r="L7" s="4">
         <f>BNVFE!L29*('BHNVFEAL-LDVs-psgr'!L$4/BNVFE!L$26)</f>
-        <v>3.4090374402748674E-4</v>
+        <v>3.3041337316799617E-4</v>
       </c>
       <c r="M7" s="4">
         <f>BNVFE!M29*('BHNVFEAL-LDVs-psgr'!M$4/BNVFE!M$26)</f>
-        <v>3.4686163891380382E-4</v>
+        <v>3.3986837478417343E-4</v>
       </c>
       <c r="N7" s="4">
         <f>BNVFE!N29*('BHNVFEAL-LDVs-psgr'!N$4/BNVFE!N$26)</f>
-        <v>3.5254200312831522E-4</v>
+        <v>3.4904827428650336E-4</v>
       </c>
       <c r="O7" s="4">
         <f>BNVFE!O29*('BHNVFEAL-LDVs-psgr'!O$4/BNVFE!O$26)</f>
@@ -23995,127 +24030,127 @@
       </c>
       <c r="B8" s="4">
         <f>SYFAFE!$H$2</f>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="C8" s="4">
         <f>B8</f>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ref="D8:AF8" si="0">C8</f>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="0"/>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="0"/>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="0"/>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="0"/>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="0"/>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="0"/>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="0"/>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="0"/>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="0"/>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="R8" s="4">
         <f t="shared" si="0"/>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="S8" s="4">
         <f t="shared" si="0"/>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="T8" s="4">
         <f t="shared" si="0"/>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="U8" s="4">
         <f t="shared" si="0"/>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="V8" s="4">
         <f t="shared" si="0"/>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="W8" s="4">
         <f t="shared" si="0"/>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="X8" s="4">
         <f t="shared" si="0"/>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="Y8" s="4">
         <f t="shared" si="0"/>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="0"/>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="AA8" s="4">
         <f t="shared" si="0"/>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="AB8" s="4">
         <f t="shared" si="0"/>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="AC8" s="4">
         <f t="shared" si="0"/>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="AD8" s="4">
         <f t="shared" si="0"/>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="AE8" s="4">
         <f t="shared" si="0"/>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="AF8" s="4">
         <f t="shared" si="0"/>
-        <v>5.8732402773689196E-4</v>
+        <v>4.9236744840218491E-4</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -24161,7 +24196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -24171,12 +24206,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" ht="16">
       <c r="A1" s="28" t="s">
         <v>87</v>
       </c>
@@ -24280,127 +24315,127 @@
       </c>
       <c r="B2" s="4">
         <f t="array" ref="B2:B8">TRANSPOSE(SYFAFE!B10:H10)</f>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4">
         <f>B2</f>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:AF8" si="0">C2</f>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4">
         <f t="shared" si="0"/>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4">
         <f t="shared" si="0"/>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4">
         <f t="shared" si="0"/>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4">
         <f t="shared" si="0"/>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4">
         <f t="shared" si="0"/>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4">
         <f t="shared" si="0"/>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4">
         <f t="shared" si="0"/>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4">
         <f t="shared" si="0"/>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4">
         <f t="shared" si="0"/>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4">
         <f t="shared" si="0"/>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4">
         <f t="shared" si="0"/>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4">
         <f t="shared" si="0"/>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4">
         <f t="shared" si="0"/>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4">
         <f t="shared" si="0"/>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4">
         <f t="shared" si="0"/>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4">
         <f t="shared" si="0"/>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4">
         <f t="shared" si="0"/>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4">
         <f t="shared" si="0"/>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4">
         <f t="shared" si="0"/>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4">
         <f t="shared" si="0"/>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4">
         <f t="shared" si="0"/>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4">
         <f t="shared" si="0"/>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4">
         <f t="shared" si="0"/>
-        <v>1.2098850095054675E-4</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -24410,127 +24445,127 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="1"/>
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" si="1"/>
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" si="1"/>
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="1"/>
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="1"/>
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="1"/>
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" si="1"/>
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="1"/>
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="1"/>
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="1"/>
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4">
         <f t="shared" si="1"/>
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" si="1"/>
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" si="1"/>
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4">
         <f t="shared" si="1"/>
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" si="1"/>
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4">
         <f t="shared" si="0"/>
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" si="0"/>
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4">
         <f t="shared" si="0"/>
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4">
         <f t="shared" si="0"/>
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4">
         <f t="shared" si="0"/>
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="X3" s="4">
         <f t="shared" si="0"/>
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="4">
         <f t="shared" si="0"/>
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" si="0"/>
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="4">
         <f t="shared" si="0"/>
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="4">
         <f t="shared" si="0"/>
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="4">
         <f t="shared" si="0"/>
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="4">
         <f t="shared" si="0"/>
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="4">
         <f t="shared" si="0"/>
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4">
         <f t="shared" si="0"/>
-        <v>6.8530242152742244E-5</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
@@ -24540,127 +24575,127 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="1"/>
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="0"/>
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="0"/>
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="0"/>
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" si="0"/>
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="K4" s="4">
         <f t="shared" si="0"/>
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="0"/>
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="0"/>
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="0"/>
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="0"/>
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="0"/>
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="0"/>
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" si="0"/>
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="0"/>
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="0"/>
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="U4" s="4">
         <f t="shared" si="0"/>
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="V4" s="4">
         <f t="shared" si="0"/>
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="W4" s="4">
         <f t="shared" si="0"/>
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="X4" s="4">
         <f t="shared" si="0"/>
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="Y4" s="4">
         <f t="shared" si="0"/>
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="0"/>
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="AA4" s="4">
         <f t="shared" si="0"/>
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="AB4" s="4">
         <f t="shared" si="0"/>
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="AC4" s="4">
         <f t="shared" si="0"/>
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="AD4" s="4">
         <f t="shared" si="0"/>
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="AE4" s="4">
         <f t="shared" si="0"/>
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="AF4" s="4">
         <f t="shared" si="0"/>
-        <v>1.043975093608511E-4</v>
+        <v>1.2992623297592373E-4</v>
       </c>
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
@@ -24670,127 +24705,127 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="1"/>
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="0"/>
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="0"/>
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="0"/>
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="0"/>
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="0"/>
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="0"/>
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="0"/>
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="0"/>
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="R5" s="4">
         <f t="shared" si="0"/>
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="S5" s="4">
         <f t="shared" si="0"/>
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" si="0"/>
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="U5" s="4">
         <f t="shared" si="0"/>
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="V5" s="4">
         <f t="shared" si="0"/>
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="W5" s="4">
         <f t="shared" si="0"/>
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" si="0"/>
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="Y5" s="4">
         <f t="shared" si="0"/>
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="0"/>
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="AA5" s="4">
         <f t="shared" si="0"/>
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="AB5" s="4">
         <f t="shared" si="0"/>
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="AC5" s="4">
         <f t="shared" si="0"/>
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" si="0"/>
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="AE5" s="4">
         <f t="shared" si="0"/>
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="AF5" s="4">
         <f t="shared" si="0"/>
-        <v>7.3948395495852042E-5</v>
+        <v>7.0808066480209403E-5</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -24800,127 +24835,127 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="1"/>
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="0"/>
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="0"/>
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="0"/>
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="0"/>
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="0"/>
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" si="0"/>
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="N6" s="4">
         <f t="shared" si="0"/>
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="O6" s="4">
         <f t="shared" si="0"/>
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" si="0"/>
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="Q6" s="4">
         <f t="shared" si="0"/>
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="R6" s="4">
         <f t="shared" si="0"/>
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="S6" s="4">
         <f t="shared" si="0"/>
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="T6" s="4">
         <f t="shared" si="0"/>
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="U6" s="4">
         <f t="shared" si="0"/>
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="V6" s="4">
         <f t="shared" si="0"/>
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="W6" s="4">
         <f t="shared" si="0"/>
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="X6" s="4">
         <f t="shared" si="0"/>
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="Y6" s="4">
         <f t="shared" si="0"/>
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="Z6" s="4">
         <f t="shared" si="0"/>
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="AA6" s="4">
         <f t="shared" si="0"/>
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="AB6" s="4">
         <f t="shared" si="0"/>
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="AC6" s="4">
         <f t="shared" si="0"/>
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="AD6" s="4">
         <f t="shared" si="0"/>
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="AE6" s="4">
         <f t="shared" si="0"/>
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="AF6" s="4">
         <f t="shared" si="0"/>
-        <v>2.3149219108236567E-4</v>
+        <v>2.880998649758333E-4</v>
       </c>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
@@ -24930,127 +24965,127 @@
         <v>84</v>
       </c>
       <c r="B7" s="4">
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="1"/>
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="K7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="R7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="S7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="T7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="U7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="V7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="W7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="X7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0198415563294249E-5</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
@@ -25060,127 +25095,127 @@
         <v>85</v>
       </c>
       <c r="B8" s="29">
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="C8" s="29">
         <f t="shared" si="1"/>
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="D8" s="29">
         <f t="shared" si="0"/>
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="E8" s="29">
         <f t="shared" si="0"/>
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="0"/>
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="0"/>
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="0"/>
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="0"/>
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="0"/>
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="0"/>
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="0"/>
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="0"/>
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="0"/>
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="R8" s="4">
         <f t="shared" si="0"/>
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="S8" s="4">
         <f t="shared" si="0"/>
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="T8" s="4">
         <f t="shared" si="0"/>
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="U8" s="4">
         <f t="shared" si="0"/>
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="V8" s="4">
         <f t="shared" si="0"/>
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="W8" s="4">
         <f t="shared" si="0"/>
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="X8" s="4">
         <f t="shared" si="0"/>
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="Y8" s="4">
         <f t="shared" si="0"/>
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="0"/>
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="AA8" s="4">
         <f t="shared" si="0"/>
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="AB8" s="4">
         <f t="shared" si="0"/>
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="AC8" s="4">
         <f t="shared" si="0"/>
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="AD8" s="4">
         <f t="shared" si="0"/>
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="AE8" s="4">
         <f t="shared" si="0"/>
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="AF8" s="4">
         <f t="shared" si="0"/>
-        <v>2.0735934964818689E-3</v>
+        <v>2.4773379843525084E-3</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
@@ -25191,7 +25226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -25201,12 +25236,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" ht="16">
       <c r="A1" s="28" t="s">
         <v>87</v>
       </c>
@@ -25310,127 +25345,127 @@
       </c>
       <c r="B2" s="4">
         <f t="array" ref="B2:B8">TRANSPOSE(SYFAFE!B3:H3)</f>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="C2" s="4">
         <f>B2</f>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:AF8" si="0">C2</f>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="H2" s="4">
         <f t="shared" si="0"/>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="I2" s="4">
         <f t="shared" si="0"/>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="J2" s="4">
         <f t="shared" si="0"/>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="K2" s="4">
         <f t="shared" si="0"/>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="N2" s="4">
         <f t="shared" si="0"/>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="O2" s="4">
         <f t="shared" si="0"/>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="P2" s="4">
         <f t="shared" si="0"/>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="Q2" s="4">
         <f t="shared" si="0"/>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="R2" s="4">
         <f t="shared" si="0"/>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="S2" s="4">
         <f t="shared" si="0"/>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="T2" s="4">
         <f t="shared" si="0"/>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="U2" s="4">
         <f t="shared" si="0"/>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="V2" s="4">
         <f t="shared" si="0"/>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="W2" s="4">
         <f t="shared" si="0"/>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="X2" s="4">
         <f t="shared" si="0"/>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="Y2" s="4">
         <f t="shared" si="0"/>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="Z2" s="4">
         <f t="shared" si="0"/>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="AA2" s="4">
         <f t="shared" si="0"/>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="AB2" s="4">
         <f t="shared" si="0"/>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="AC2" s="4">
         <f t="shared" si="0"/>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="AD2" s="4">
         <f t="shared" si="0"/>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="AE2" s="4">
         <f t="shared" si="0"/>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="AF2" s="4">
         <f t="shared" si="0"/>
-        <v>2.8716216192227239E-3</v>
+        <v>3.5447281106324811E-3</v>
       </c>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
@@ -25440,127 +25475,127 @@
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:R8" si="1">B3</f>
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" si="1"/>
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" si="1"/>
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" si="1"/>
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" si="1"/>
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4">
         <f t="shared" si="1"/>
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4">
         <f t="shared" si="1"/>
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4">
         <f t="shared" si="1"/>
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4">
         <f t="shared" si="1"/>
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="1"/>
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="1"/>
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4">
         <f t="shared" si="1"/>
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4">
         <f t="shared" si="1"/>
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" si="1"/>
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4">
         <f t="shared" si="1"/>
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="R3" s="4">
         <f t="shared" si="1"/>
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4">
         <f t="shared" si="0"/>
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4">
         <f t="shared" si="0"/>
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4">
         <f t="shared" si="0"/>
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4">
         <f t="shared" si="0"/>
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4">
         <f t="shared" si="0"/>
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="X3" s="4">
         <f t="shared" si="0"/>
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="4">
         <f t="shared" si="0"/>
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" si="0"/>
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="4">
         <f t="shared" si="0"/>
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="4">
         <f t="shared" si="0"/>
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="4">
         <f t="shared" si="0"/>
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="4">
         <f t="shared" si="0"/>
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="4">
         <f t="shared" si="0"/>
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4">
         <f t="shared" si="0"/>
-        <v>7.6571862036197878E-4</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4"/>
@@ -25570,127 +25605,127 @@
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="1"/>
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="H4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="I4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="J4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="K4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="O4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="Q4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="R4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="S4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="T4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="U4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="V4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="W4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="X4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="Y4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="AA4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="AB4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="AC4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="AD4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="AE4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="AF4" s="4">
         <f t="shared" si="0"/>
-        <v>8.9341397788199632E-4</v>
+        <v>1.0181219055931268E-3</v>
       </c>
       <c r="AH4" s="4"/>
       <c r="AI4" s="4"/>
@@ -25700,127 +25735,127 @@
         <v>5</v>
       </c>
       <c r="B5" s="4">
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="1"/>
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="R5" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="S5" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="U5" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="V5" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="W5" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="Y5" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="AA5" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="AB5" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="AC5" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="AE5" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="AF5" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505733E-4</v>
+        <v>1.1030826464418157E-3</v>
       </c>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
@@ -25830,127 +25865,127 @@
         <v>6</v>
       </c>
       <c r="B6" s="4">
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="1"/>
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="K6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="N6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="O6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="Q6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="R6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="S6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="T6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="U6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="V6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="W6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="X6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="Y6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="Z6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="AA6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="AB6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="AC6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="AD6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="AE6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="AF6" s="4">
         <f t="shared" si="0"/>
-        <v>1.9815203879922738E-3</v>
+        <v>2.445987651746682E-3</v>
       </c>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
@@ -25960,127 +25995,127 @@
         <v>84</v>
       </c>
       <c r="B7" s="4">
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="1"/>
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="K7" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="N7" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="O7" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="R7" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="S7" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="T7" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="U7" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="V7" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="W7" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="X7" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="4">
         <f t="shared" si="0"/>
-        <v>8.9361888315505722E-4</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="4"/>
       <c r="AI7" s="4"/>
@@ -26090,127 +26125,127 @@
         <v>85</v>
       </c>
       <c r="B8" s="4">
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="1"/>
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="0"/>
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="0"/>
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="K8" s="4">
         <f t="shared" si="0"/>
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="0"/>
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="0"/>
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="N8" s="4">
         <f t="shared" si="0"/>
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="O8" s="4">
         <f t="shared" si="0"/>
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="0"/>
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="Q8" s="4">
         <f t="shared" si="0"/>
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="R8" s="4">
         <f t="shared" si="0"/>
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="S8" s="4">
         <f t="shared" si="0"/>
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="T8" s="4">
         <f t="shared" si="0"/>
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="U8" s="4">
         <f t="shared" si="0"/>
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="V8" s="4">
         <f t="shared" si="0"/>
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="W8" s="4">
         <f t="shared" si="0"/>
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="X8" s="4">
         <f t="shared" si="0"/>
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="Y8" s="4">
         <f t="shared" si="0"/>
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="Z8" s="4">
         <f t="shared" si="0"/>
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="AA8" s="4">
         <f t="shared" si="0"/>
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="AB8" s="4">
         <f t="shared" si="0"/>
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="AC8" s="4">
         <f t="shared" si="0"/>
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="AD8" s="4">
         <f t="shared" si="0"/>
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="AE8" s="4">
         <f t="shared" si="0"/>
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="AF8" s="4">
         <f t="shared" si="0"/>
-        <v>2.6808566494651714E-3</v>
+        <v>3.3092479393254464E-3</v>
       </c>
       <c r="AH8" s="4"/>
       <c r="AI8" s="4"/>
